--- a/stat_test_output.xlsx
+++ b/stat_test_output.xlsx
@@ -488,7 +488,7 @@
         <v>1.644354573120624E-193</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.648068238575856E-175</v>
       </c>
       <c r="F3">
         <v>0.01485213224559921</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.355604213800081E-295</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.749196592047897E-09</v>
       </c>
       <c r="F4">
         <v>6.549815282872233E-315</v>
@@ -535,10 +535,10 @@
         <v>2.083848528251914E-197</v>
       </c>
       <c r="I4">
-        <v>2.839730705602969E-314</v>
+        <v>3.769978723125063E-108</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.574237453377575E-288</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -552,25 +552,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.648068238575856E-175</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.749196592047897E-09</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4.18964191575998E-300</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.985800837883082E-19</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.836730695571337E-275</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>6.549815282872233E-315</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.18964191575998E-300</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0.2062966569393933</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.985800837883082E-19</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>1.879943510027398E-313</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.868834442128195E-178</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2.268105563892223E-268</v>
+        <v>2.885480383295331E-172</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.387446842146132E-187</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -692,22 +692,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8.355604213800081E-295</v>
       </c>
       <c r="D9">
-        <v>2.839730705602969E-314</v>
+        <v>3.769978723125063E-108</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7.836730695571337E-275</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4.868834442128195E-178</v>
       </c>
       <c r="H9">
-        <v>2.268105563892223E-268</v>
+        <v>2.885480383295331E-172</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.574237453377575E-288</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.387446842146132E-187</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/stat_test_output.xlsx
+++ b/stat_test_output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjrti\PycharmProjects\StochasticSimulation\Assignment2\Stochasticsim2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DADC41-B8E6-4465-B0F3-F87981B958EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,8 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,17 +117,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +462,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,353 +504,353 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.220959945206369E-209</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>3.54190595525841E-204</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.220959945206369E-209</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1.644354573120624E-193</v>
-      </c>
-      <c r="E3">
-        <v>3.648068238575856E-175</v>
-      </c>
-      <c r="F3">
-        <v>0.01485213224559921</v>
-      </c>
-      <c r="G3">
-        <v>8.42668974276171E-209</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>8.355604213800081E-295</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.485213224559921E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1.644354573120624E-193</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>5.749196592047897E-09</v>
-      </c>
-      <c r="F4">
-        <v>6.549815282872233E-315</v>
-      </c>
-      <c r="G4">
-        <v>0.2062966569393933</v>
-      </c>
-      <c r="H4">
-        <v>2.083848528251914E-197</v>
-      </c>
-      <c r="I4">
-        <v>3.769978723125063E-108</v>
-      </c>
-      <c r="J4">
-        <v>3.574237453377575E-288</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.20629665693939331</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3.648068238575856E-175</v>
-      </c>
-      <c r="D5">
-        <v>5.749196592047897E-09</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>4.18964191575998E-300</v>
-      </c>
-      <c r="G5">
-        <v>1.985800837883082E-19</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>7.836730695571337E-275</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3.54190595525841E-204</v>
-      </c>
-      <c r="C6">
-        <v>0.01485213224559921</v>
-      </c>
-      <c r="D6">
-        <v>6.549815282872233E-315</v>
-      </c>
-      <c r="E6">
-        <v>4.18964191575998E-300</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.485213224559921E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>8.42668974276171E-209</v>
-      </c>
-      <c r="D7">
-        <v>0.2062966569393933</v>
-      </c>
-      <c r="E7">
-        <v>1.985800837883082E-19</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1.879943510027398E-313</v>
-      </c>
-      <c r="I7">
-        <v>4.868834442128195E-178</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.20629665693939331</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2.083848528251914E-197</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.879943510027398E-313</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2.885480383295331E-172</v>
-      </c>
-      <c r="J8">
-        <v>2.387446842146132E-187</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>8.355604213800081E-295</v>
-      </c>
-      <c r="D9">
-        <v>3.769978723125063E-108</v>
-      </c>
-      <c r="E9">
-        <v>7.836730695571337E-275</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>4.868834442128195E-178</v>
-      </c>
-      <c r="H9">
-        <v>2.885480383295331E-172</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3.574237453377575E-288</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2.387446842146132E-187</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>1</v>
       </c>
     </row>
